--- a/data/dividends_info_20260220.xlsx
+++ b/data/dividends_info_20260220.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>54.79999923706055</v>
+        <v>56</v>
       </c>
       <c r="I2" t="n">
-        <v>1.277372280557622</v>
+        <v>1.25</v>
       </c>
       <c r="J2" t="n">
         <v>360</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>86</v>
+        <v>87.69999694824219</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209302325581395</v>
+        <v>1.185860930660894</v>
       </c>
       <c r="J3" t="n">
         <v>87</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>54.79999923706055</v>
+        <v>56</v>
       </c>
       <c r="I4" t="n">
-        <v>4.014598596038242</v>
+        <v>3.928571428571429</v>
       </c>
       <c r="J4" t="n">
         <v>87</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>19.61499977111816</v>
+        <v>19.97500038146973</v>
       </c>
       <c r="I5" t="n">
-        <v>4.027529998563776</v>
+        <v>3.954943604070526</v>
       </c>
       <c r="J5" t="n">
         <v>87</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.748000144958496</v>
+        <v>5.870999813079834</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305497481009056</v>
+        <v>3.236246057727755</v>
       </c>
       <c r="J6" t="n">
         <v>87</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>23.10000038146973</v>
+        <v>22.13999938964844</v>
       </c>
       <c r="I7" t="n">
-        <v>2.597402554509505</v>
+        <v>2.710027174980547</v>
       </c>
       <c r="J7" t="n">
         <v>87</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8.939999580383301</v>
+        <v>9.109999656677246</v>
       </c>
       <c r="I8" t="n">
-        <v>5.710291095764373</v>
+        <v>5.60373237364312</v>
       </c>
       <c r="J8" t="n">
         <v>73</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>19.10000038146973</v>
+        <v>19.20000076293945</v>
       </c>
       <c r="I9" t="n">
-        <v>3.926701492255615</v>
+        <v>3.906249844779577</v>
       </c>
       <c r="J9" t="n">
         <v>73</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2.180000066757202</v>
+        <v>2.214999914169312</v>
       </c>
       <c r="I10" t="n">
-        <v>2.981651284840964</v>
+        <v>2.93453735976224</v>
       </c>
       <c r="J10" t="n">
         <v>66</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6.764999866485596</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="I11" t="n">
-        <v>7.390983146607939</v>
+        <v>7.374631040227261</v>
       </c>
       <c r="J11" t="n">
         <v>59</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>12.39999961853027</v>
+        <v>12.89000034332275</v>
       </c>
       <c r="I12" t="n">
-        <v>4.354838843648322</v>
+        <v>4.189293914795972</v>
       </c>
       <c r="J12" t="n">
         <v>59</v>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>25.20000076293945</v>
+        <v>25.70000076293945</v>
       </c>
       <c r="I13" t="n">
-        <v>5.396825233434488</v>
+        <v>5.291828636679189</v>
       </c>
       <c r="J13" t="n">
         <v>59</v>
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>18.90500068664551</v>
+        <v>19.47999954223633</v>
       </c>
       <c r="I14" t="n">
-        <v>3.332451611308493</v>
+        <v>3.234086318298112</v>
       </c>
       <c r="J14" t="n">
         <v>59</v>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>28.29999923706055</v>
+        <v>28.55500030517578</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3180212099869585</v>
+        <v>0.3151812258383583</v>
       </c>
       <c r="J15" t="n">
         <v>31</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>54.79999923706055</v>
+        <v>56</v>
       </c>
       <c r="I16" t="n">
-        <v>1.186131403374935</v>
+        <v>1.160714285714286</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.720000028610229</v>
+        <v>1.700000047683716</v>
       </c>
       <c r="I17" t="n">
-        <v>3.488372034998183</v>
+        <v>3.529411665708551</v>
       </c>
       <c r="J17" t="n">
         <v>-11</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.1885000020265579</v>
+        <v>0.1825000047683716</v>
       </c>
       <c r="I18" t="n">
-        <v>31.8302383845845</v>
+        <v>32.87671146976232</v>
       </c>
       <c r="J18" t="n">
         <v>-18</v>
@@ -1303,7 +1303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,7 +1382,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>Unicredit S.p.A.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1392,14 +1392,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GREEN OLEO S.p.A</t>
+          <t>Matica Fintec S.p.A.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1416,7 +1416,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MEDIOLANUM GESTIONE FONDI SGR p.A.</t>
+          <t>Yakkyo S.p.A.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1426,14 +1426,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Matica Fintec S.p.A.</t>
+          <t>GREEN OLEO S.p.A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1450,7 +1450,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Unicredit S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1460,14 +1460,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Yakkyo S.p.A.</t>
+          <t>MEDIOLANUM GESTIONE FONDI SGR p.A.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1477,14 +1477,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual Report</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>CASTELLO SGR S.p.A.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1494,19 +1494,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual Report</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>Pirelli &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1518,12 +1518,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1535,17 +1535,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -1557,58 +1557,58 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ferretti S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Farmacosmo S.p.A.</t>
+          <t>HELYX INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Haiki+ S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1620,80 +1620,80 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CASTELLO SGR S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>Stellantis N.V.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Bellini Nautica S.p.A.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Dedem S.p.A.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1705,12 +1705,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Datrix S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1722,46 +1722,46 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pirelli &amp; C. S.p.A.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>Reti S.p.A.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>Renovalo S.p.A.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1773,29 +1773,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1807,114 +1807,114 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Redelfi S.p.A.</t>
+          <t>S.S. Lazio S.p.A.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>I.CO.P. S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>Anima Holding S.p.A.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JUVENTUS F.C. S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1926,12 +1926,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IGD SIIQ S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1943,46 +1943,46 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HELYX INDUSTRIES S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1994,63 +1994,63 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dedem S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bellini Nautica S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2062,131 +2062,131 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Renovalo S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Reti S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S.S. Lazio S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Anima Holding S.p.A.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2198,29 +2198,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>I.CO.P. S.p.A. Società Benefit</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2232,29 +2232,29 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2266,12 +2266,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2283,29 +2283,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2317,46 +2317,46 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2368,12 +2368,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>VALSOIA S.p.A.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2385,12 +2385,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Toscana Aeroporti S.p.A.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2402,46 +2402,46 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>Banca Popolare di Sondrio S.p.A.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2453,29 +2453,29 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>CAREL INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2487,29 +2487,29 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Banca Generali S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2521,29 +2521,29 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2555,12 +2555,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2572,80 +2572,80 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>WEBUILD S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2657,12 +2657,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2674,12 +2674,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2691,63 +2691,63 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2759,29 +2759,29 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BEEWIZE</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2793,12 +2793,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BANCA SISTEMA S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2810,29 +2810,29 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CALTAGIRONE EDITORE S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2844,29 +2844,29 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DIGITAL BROS S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2878,29 +2878,29 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>VALSOIA S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2912,12 +2912,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2929,12 +2929,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2946,29 +2946,29 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2980,12 +2980,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Toscana Aeroporti S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2997,29 +2997,29 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3031,12 +3031,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3048,63 +3048,63 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3116,12 +3116,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3133,12 +3133,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3150,29 +3150,29 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3184,12 +3184,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>ZIGNAGO VETRO S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3201,12 +3201,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3218,29 +3218,29 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3252,12 +3252,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3269,12 +3269,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>Neodecortech S.p.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3286,80 +3286,80 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ZIGNAGO VETRO S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3371,29 +3371,29 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3405,12 +3405,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3422,12 +3422,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3439,12 +3439,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3456,12 +3456,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3473,29 +3473,29 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3507,63 +3507,63 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>NEWPRINCES</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>MOLTIPLY GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>Gabetti Property Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3575,29 +3575,29 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3609,12 +3609,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3626,46 +3626,46 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3677,12 +3677,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>TECMA SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3694,12 +3694,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>Acinque S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3711,12 +3711,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3728,29 +3728,29 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3762,29 +3762,29 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3796,12 +3796,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3813,63 +3813,63 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Pharmanutra S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>A2A S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3881,12 +3881,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>I.M.D. International Medical Devices S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3898,97 +3898,97 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>FAE Technology Società Benefit S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>Technoprobe S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>RISANAMENTO S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4000,12 +4000,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4017,12 +4017,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4034,12 +4034,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Neodecortech S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4051,46 +4051,46 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>BREMBO N.V.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4102,29 +4102,29 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>FNM S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4136,12 +4136,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>FRENDY ENERGY S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4153,12 +4153,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4170,12 +4170,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MOLTIPLY GROUP S.p.A.</t>
+          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4187,12 +4187,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
+          <t>RECORDATI S.p.A.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4204,46 +4204,46 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Ecomembrane S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4255,12 +4255,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Gabetti Property Solutions S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4272,29 +4272,29 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>DATALOGIC S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4306,12 +4306,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>B&amp;C SPEAKERS S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4323,12 +4323,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4340,12 +4340,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Comer Industries S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4357,12 +4357,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
+          <t>AEDES S.p.A.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4374,29 +4374,29 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>INTERPUMP GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>NEXT RE SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4408,46 +4408,46 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>NEWPRINCES</t>
+          <t>OPS Italia S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
+          <t>Telesia S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4459,12 +4459,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>EUROTECH S.p.A.</t>
+          <t>gAIn360 S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4476,729 +4476,49 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>FAE Technology Società Benefit S.p.A.</t>
+          <t>DiaSorin S.p.A</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>Gambero Rosso S.p.A.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>I.M.D. International Medical Devices S.p.A.</t>
+          <t>DHH S.p.A.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Esprinet S.p.A.</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Poste Italiane S.p.A.</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Industrie De Nora S.p.A.</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>A2A S.p.A.</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Pharmanutra S.p.A.</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>BREMBO N.V.</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Eni S.p.A.</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Industrie De Nora S.p.A.</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Pattern S.p.A.</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>RISANAMENTO S.p.A.</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>STAR7 S.p.A.</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>STAR7 S.p.A.</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>doValue S.p.A.</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Technoprobe S.p.A.</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>B&amp;C SPEAKERS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>AEDES S.p.A.</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>DATALOGIC S.p.A.</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>ENEL S.p.A.</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>FNM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Ecomembrane S.p.A.</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Eni S.p.A.</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>FRENDY ENERGY S.p.A.</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>RECORDATI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>TECHNOGYM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>TECHNOGYM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>ENEL S.p.A.</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>DiaSorin S.p.A</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Gambero Rosso S.p.A.</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>gAIn360 S.p.A.</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>OPS Italia S.p.A.</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Pattern S.p.A.</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Telesia S.p.A.</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>DHH S.p.A.</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>NEXT RE SIIQ S.p.A.</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
         <is>
           <t>Bod Annual Report</t>
         </is>
@@ -5215,193 +4535,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stock_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>detachment_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>payment_date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>last_close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dividend</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ratio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>miss_days</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>is_opportunity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BRUNELLO CUCINELLI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>IT0004764699</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-05-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2026-05-20</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>86</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1.209302325581395</v>
-      </c>
-      <c r="I2" t="n">
-        <v>87</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Banca Generali S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>IT0001031084</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2026-02-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>54.79999923706055</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1.186131403374935</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TENARIS S.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LU2598331598</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2026-05-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2026-05-20</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>23.10000038146973</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>DOLLARI USA</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2.597402554509505</v>
-      </c>
-      <c r="I4" t="n">
-        <v>87</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5412,134 +4553,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bellini Nautica S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CIRCLE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HELYX INDUSTRIES S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pozzi Milano S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RT&amp;L S.P.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Redelfi S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>